--- a/Kontext Sätze/taz_neutralforms_results.xlsx
+++ b/Kontext Sätze/taz_neutralforms_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>x</t>
   </si>
@@ -50,37 +50,127 @@
     <t>11</t>
   </si>
   <si>
-    <t>Sie begründete das mit „rechtspopulistischen Äußerungen des Bundesvorsitzenden und der eher puristischen Auffassung von Sprache, die sich diametral von meiner unterscheidet“.</t>
-  </si>
-  <si>
-    <t>Erschrocken habe sie Zitate des Bundesvorsitzenden Walter Krämer gelesen, der in der Vereinszeitschrift Sprachnachrichten den „aktuellen Meinungsterror unserer weitgehend linksgestrickten Lügenmedien“ kritisiert, den „Genderwahn“ beklagt und mit Blick auf die Flüchtlingswelle 2015 von einer „Völkerwanderung“ spricht.</t>
-  </si>
-  <si>
-    <t>Doch die Presseerklärung, mit der die drei Fraktionsvorsitzenden dies begründen, zeigt, dass es ihnen nicht um Barrierefreiheit geht, wie sie behauptet hatten.</t>
-  </si>
-  <si>
-    <t>Dort, wo der Fraktionsvorsitzende der drittstärksten Partei, Björn Höcke, „die Männlichkeit der Gesellschaft wiederentdecken möchte“.</t>
-  </si>
-  <si>
-    <t>Schmitt, stellvertretender Bundesvorsitzender und Bundespressesprecher der LSU der taz auf Anfrage mit.</t>
-  </si>
-  <si>
-    <t>Und das tat sie in voller Bewusstheit um die fragilen Mehrheitsverhältnisse im Landtag“, sagte Matthias Hey, Fraktionsvorsitzender der SPD im Thüringer Landtag, auf Anfrage der taz.</t>
-  </si>
-  <si>
-    <t>Das beschloss die DFG auf ihrer Jahresmitgliederversammlung am Mittwoch.</t>
-  </si>
-  <si>
-    <t>anzusprechen, und dass er heute besser verstehe, warum das die anwesenden Frauen so verärgert habe.</t>
-  </si>
-  <si>
-    <t>Unglamourös als Übertragung einer Videokonferenz, mit Carlo Chatrian, dem künstlerischen Leiter, im Studio, während die Jurymitglieder auf einem Bildschirm vor ihm sprachen.</t>
-  </si>
-  <si>
-    <t>Ein beiläufig präzise erzählendes Drehbuch, ebenso präzise ins Bild gesetzt.</t>
-  </si>
-  <si>
-    <t>Und Kultusministerin Prien, berufe sich zwar auf die Bedürfnisse lernender Kinder, verbiete aber „12-Klässler*innen“, mit Sternchen zu schreiben.</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Der Kläger habe aber kein Recht darauf, „in Ruhe gelassen zu werden“, so der Vorsitzende Richter Christoph Hellerbrand.</t>
+  </si>
+  <si>
+    <t>Wenn die Political Correctness verlangt, dass der Bauer zum landwirtschaftlich Beschäftigten und der Gast zur Besuchsperson wird, schütteln in Kärnten viele den Kopf.</t>
+  </si>
+  <si>
+    <t>Wenn es mal mit dem ‚*innen‘ nicht funktioniert für mich, nehme ich eine andere Form: Etwa „Studierende', die Partizipialkonstruktion.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Krämer sei „ein temperamentvoller Rheinländer“, der manchmal zu sehr zuspitze, sagt Regionalleiter Kaufmann.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende der Bremerhavener FDP-Fraktion, Hauke Hilz, argumentiert gegenüber der taz mit Barrierefreiheit.</t>
+  </si>
+  <si>
+    <t>Als Petra Gerster im Herbst 2020 in ihrer Moderation der „Heute“-Nachrichten des ZDF begann, durch einen Glottisschlag, also eine kurze Pause beim Sprechen, zu gendern, waren die Reaktionen geteilt.</t>
+  </si>
+  <si>
+    <t>So schlägt sie vor, es sollte statt „Teilnehmerinnen- und Teilnehmerliste“ besser Teilnahmeliste heißen, also neutral at its best.</t>
+  </si>
+  <si>
+    <t>Forschende an der Universität Erfurt schrieben sogar einen offenen Protestbrief an den Landtag.</t>
+  </si>
+  <si>
+    <t>Viele Studierende entschieden sich wegen ihr für die Stadt.</t>
+  </si>
+  <si>
+    <t>Zum Beweis, dass er rein gar nichts verstanden hat, folgt dann noch das Satz „Die Führungskraft ist heute überwiegend ein Mann und keiner hat sich je beschwert.“</t>
+  </si>
+  <si>
+    <t>Wer diesen Wunsch teilt, kann kaum anders, als ab sofort „Mitarbeiter*innen“ oder „Forschende“ zu schreiben und durch Sprechpausen das Mitmeinen aller anzuzeigen.</t>
+  </si>
+  <si>
+    <t>Irgendwann ist “Studierende„ einfach das Wort für ehedem „Studenten“.</t>
+  </si>
+  <si>
+    <t>Dafür gibt es viele Varianten, liebe Leser_innen, Leser.innen, Leser*innen, Lesende oder eben Leser:innen.</t>
+  </si>
+  <si>
+    <t>Bei den Oscars wurde Jaye Davidson nämlich in der Kategorie „bester Nebendarsteller“ nominiert, wodurch die entscheidende Wendung des Films verraten wurde, dass die Frau, in die sich die männliche Hauptfigur verliebt, einen Penis hat.</t>
+  </si>
+  <si>
+    <t>Die Partizipkon­struk­tion ist kaum besser: Beratende von Fußballspielenden?</t>
+  </si>
+  <si>
+    <t>Korrekt müsste das Spiel „Bovine Menschen und Mitglieder der indigenen Bevölkerung“ heißen.</t>
+  </si>
+  <si>
+    <t>Wie leicht geht Ihnen das über die Lippen, nach 30 Jahren Moderation mit generischem Maskulinum?</t>
+  </si>
+  <si>
+    <t>Die Mitglieder sind Hochschulen, außeruniversitäre Forschungseinrichtungen, wissenschaftliche Verbände und die Akademien der Wissenschaften.</t>
+  </si>
+  <si>
+    <t>In „Alle Bäcker“ erkennen wir die übergreifende Form, neudeutsch „Backende“.</t>
+  </si>
+  <si>
+    <t>So zeigten Vergleichsstudien nur geringfügig verbesserte Quoten beim Gebrauch geschlechtsneutraler Ersatzbegriffe – Studenten durch Studierende und Mitarbeiter durch Mitarbeitende zu ersetzen löst das Problem nicht.</t>
+  </si>
+  <si>
+    <t>Ein kleiner indes für die Katholische Studierende Jugend (KSJ).</t>
+  </si>
+  <si>
+    <t>Wo immer es geht, sollen Geschlechtsumfassende Formulierungen verwendet werden – wie zum Beispiel „Beschäftigte“, „Studierende“ oder „Teilnehmende“.</t>
+  </si>
+  <si>
+    <t>„Geschlechtsumfassende Formulierungen“ nämlich sollten da verwendet werden, also „Redeliste“ statt „Rednerliste“ oder „das Protokoll schreibt“ anstelle von „Protokollführer ist“.</t>
+  </si>
+  <si>
+    <t>So empfiehlt zum Beispiel das Sozialministerium Baden-Württemberg: „Abteilungsleitung“ statt „Abteilungsleiter“; „die antragstellende Person“ statt „der Antragsteller“, „die Teilnehmenden“ statt „die „Teilnehmer“, „die ausländische Delegation“ statt „die ausländischen Vertreterinnen und Vertreter“.</t>
+  </si>
+  <si>
+    <t>Vorgeschlagen werden darin etwa neutrale Begriffe wie „Teilnehmende“ oder „Auszubildende“, an denen sich auch die Kieler Kultusministerin nicht stoßen dürfte.</t>
+  </si>
+  <si>
+    <t>Und auch hier ist Prien zumindest einem ihrer Kollegen voraus: Im Gegensatz zu Friedrich Merz kann Prien alle Mitglieder des Teams aufzählen.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -150,7 +240,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -158,7 +248,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -166,7 +256,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -174,7 +264,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -182,7 +272,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -190,7 +280,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -198,7 +288,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -206,7 +296,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -214,7 +304,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -222,7 +312,127 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
